--- a/Crawling/music/crawled_data/live_vibe/live_vibe_20220426_110637.xlsx
+++ b/Crawling/music/crawled_data/live_vibe/live_vibe_20220426_110637.xlsx
@@ -34,7 +34,7 @@
     <t>앨범</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-04-26</t>
